--- a/2025-10-14/14_fixtures.xlsx
+++ b/2025-10-14/14_fixtures.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,11 +488,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Morocco  - Republic of the Congo: 20:00</t>
+          <t>Morocco ✓ - Republic of the Congo: 1:0</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2.91</v>
+        <v>1.87</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -500,18 +500,23 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>83%</t>
+          <t>82%</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>✓</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="I2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -522,15 +527,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Puerto Rico - Argentina : 00:00</t>
+          <t>Latvia - England ✓: 0:5</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.66</v>
+        <v>1.39</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>England</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -538,14 +543,19 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>79%</t>
+          <t>80%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>✓</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -560,7 +570,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2.83</v>
+        <v>2.9</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -572,7 +582,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>78%</t>
+          <t>79%</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -590,23 +600,23 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Malaysia ✓ - Laos: 5:1</t>
+          <t>Russia ✓ - Bolivia: 3:0</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2.56</v>
+        <v>4.25</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>73%</t>
+          <t>79%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -615,10 +625,10 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -629,30 +639,30 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Democratic Republic of the Congo  - Sudan: 20:00</t>
+          <t>Puerto Rico - Argentina : 00:00</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.72</v>
+        <v>1.66</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Democratic Republic of the Congo</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>73%</t>
+          <t>79%</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -663,30 +673,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ivory Coast  - Kenya: 20:00</t>
+          <t>Spain ✓ - Bulgaria: 4:0</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.11</v>
+        <v>6.2</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Ivory Coast</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>73%</t>
+          <t>79%</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>✓</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="I7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -697,35 +712,30 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Iran ✓ - Tanzania: 2:0</t>
+          <t>Portugal  - Hungary: 2:2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.38</v>
+        <v>3.47</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>71%</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>✓</t>
+          <t>77%</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -736,15 +746,15 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>South Africa ✓ - Rwanda: 3:0</t>
+          <t>Senegal ✓ - Mauritania: 4:0</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.85</v>
+        <v>0.2</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Senegal</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -752,7 +762,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>74%</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -761,7 +771,7 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I9" t="b">
         <v>0</v>
@@ -775,27 +785,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>FBC Melgar  - Alianza Universidad: 00:00</t>
+          <t>Italy ✓ - Israel: 3:0</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2.25</v>
+        <v>4.09</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>FBC Melgar</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>70%</t>
+          <t>74%</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>✓</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I10" t="b">
         <v>1</v>
@@ -809,15 +824,15 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Philippines ✓ - Timor-Leste: 3:1</t>
+          <t>Malaysia ✓ - Laos: 5:1</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2.99</v>
+        <v>2.54</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -825,7 +840,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>70%</t>
+          <t>73%</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -834,7 +849,7 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I11" t="b">
         <v>0</v>
@@ -848,23 +863,23 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Algeria ✓ - Uganda: 2:1</t>
+          <t>Democratic Republic of the Congo ✓ - Sudan: 1:0</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1.44</v>
+        <v>0.61</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Algeria</t>
+          <t>Democratic Republic of the Congo</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>70%</t>
+          <t>73%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -873,10 +888,10 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -887,23 +902,23 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Nepal - Vietnam ✓: 0:1</t>
+          <t>Ivory Coast ✓ - Kenya: 3:0</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Vietnam</t>
+          <t>Ivory Coast</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>73%</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -912,10 +927,10 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -926,23 +941,23 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Costa Rica ✓ - Nicaragua: 4:1</t>
+          <t>Gabon ✓ - Burundi: 2:0</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2.41</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Gabon</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>73%</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -951,7 +966,7 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I14" t="b">
         <v>0</v>
@@ -965,15 +980,15 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Nigeria ✓ - Benin: 4:0</t>
+          <t>Algeria ✓ - Uganda: 2:1</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.06</v>
+        <v>1.34</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Algeria</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -981,7 +996,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>64%</t>
+          <t>72%</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -990,7 +1005,7 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I15" t="b">
         <v>0</v>
@@ -1004,23 +1019,23 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Chinese Taipei - Thailand ✓: 1:6</t>
+          <t>Nigeria ✓ - Benin: 4:0</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3.56</v>
+        <v>0.92</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>58%</t>
+          <t>71%</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1029,7 +1044,7 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I16" t="b">
         <v>0</v>
@@ -1043,51 +1058,397 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>FBC Melgar  - Alianza Universidad: 00:00</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>FBC Melgar</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>70%</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Tue Oct 14</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Philippines ✓ - Timor-Leste: 3:1</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>70%</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Tue Oct 14</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Nepal - Vietnam ✓: 0:1</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Vietnam</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>68%</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Tue Oct 14</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
           <t>Guinea  - Botswana: 2:2</t>
         </is>
       </c>
-      <c r="C17" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="D17" t="inlineStr">
+      <c r="C20" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>Guinea</t>
         </is>
       </c>
-      <c r="E17" t="n">
+      <c r="E20" t="n">
         <v>1.5</v>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>56%</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>68%</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v>4</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="K18">
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Tue Oct 14</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Costa Rica ✓ - Nicaragua: 4:1</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>67%</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Tue Oct 14</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Iran ✓ - Tanzania: 2:0</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>66%</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Tue Oct 14</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>South Africa ✓ - Rwanda: 3:0</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>61%</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Tue Oct 14</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Albania ✓ - Jordan: 4:2</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Albania</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>59%</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Tue Oct 14</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Chinese Taipei - Thailand ✓: 1:6</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>58%</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Tue Oct 14</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Turkiye ✓ - Georgia: 4:1</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Turkiye</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>57%</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="K27">
         <f>COUNTIF(I:I,TRUE)</f>
         <v/>
       </c>
-      <c r="L18">
-        <f>(K18/K20)*100</f>
+      <c r="L27">
+        <f>(K27/K29)*100</f>
         <v/>
       </c>
     </row>
-    <row r="19">
-      <c r="K19">
+    <row r="28">
+      <c r="K28">
         <f>COUNTIF(I:I,FALSE)</f>
         <v/>
       </c>
     </row>
-    <row r="20">
-      <c r="K20">
-        <f>K18+K19</f>
+    <row r="29">
+      <c r="K29">
+        <f>K27+K28</f>
         <v/>
       </c>
     </row>
